--- a/数据整理/stocks/A股/深证主板/002912-中新赛克.xlsx
+++ b/数据整理/stocks/A股/深证主板/002912-中新赛克.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>92.35</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.96</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5053</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.35</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.96</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,25 +634,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>960003</t>
+          <t>540003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信动态策略混合H</t>
+          <t>汇丰晋信动态策略混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>88.18</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.84</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0126</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000166</t>
+          <t>960003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中海信息产业精选混合</t>
+          <t>汇丰晋信动态策略混合H</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>56.97</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>540003</t>
+          <t>000166</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇丰晋信动态策略混合A</t>
+          <t>中海信息产业精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.18</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.84</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>56.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002912-中新赛克.xlsx
+++ b/数据整理/stocks/A股/深证主板/002912-中新赛克.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.01</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002912-中新赛克.xlsx
+++ b/数据整理/stocks/A股/深证主板/002912-中新赛克.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -754,7 +755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,17 +766,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -785,14 +806,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.12</v>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1954</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -801,13 +844,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002912-中新赛克.xlsx
+++ b/数据整理/stocks/A股/深证主板/002912-中新赛克.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -887,7 +888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,17 +899,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -918,14 +939,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.26</v>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -934,14 +977,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.12</v>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -950,13 +1015,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002912-中新赛克.xlsx
+++ b/数据整理/stocks/A股/深证主板/002912-中新赛克.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1058,7 +1059,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1069,17 +1070,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1089,14 +1110,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.26</v>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1105,14 +1148,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.26</v>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0532</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1121,14 +1186,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>1.12</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="5">
@@ -1137,13 +1308,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.01</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002912-中新赛克.xlsx
+++ b/数据整理/stocks/A股/深证主板/002912-中新赛克.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,129 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>540003</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>汇丰晋信动态策略混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>12.76</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>92.35</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5053</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.24</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>960003</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇丰晋信动态策略混合H</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.76</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.35</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.5053</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.01</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -608,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -638,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>540003</t>
+          <t>000586</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇丰晋信动态策略混合A</t>
+          <t>景顺长城中小板创业板精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.37</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.18</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0126</t>
+          <t>0.1402</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -676,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>960003</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇丰晋信动态策略混合H</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.00</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.18</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.84</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0768</t>
+          <t>0.0532</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -714,36 +698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000166</t>
+          <t>010706</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中海信息产业精选混合</t>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>56.97</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0297</t>
+          <t>0.0444</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -752,6 +736,176 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -876,176 +1030,6 @@
       </c>
       <c r="H3" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000586</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城中小板创业板精选股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.15</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1481</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>010706</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城景骊成长混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.50</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0661</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>260115</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城中小盘混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0493</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1080,7 +1064,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1110,36 +1094,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000586</t>
+          <t>540003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城中小板创业板精选股票</t>
+          <t>汇丰晋信动态策略混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>26.37</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>88.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1402</t>
+          <t>1.0126</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1148,36 +1132,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>960003</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>汇丰晋信动态策略混合H</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>88.18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>3.84</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0532</t>
+          <t>0.0768</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1186,36 +1170,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010706</t>
+          <t>000166</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城景骊成长混合型证券投资基金</t>
+          <t>中海信息产业精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.23</t>
+          <t>56.97</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.55</t>
+          <t>3.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0444</t>
+          <t>0.0297</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1229,112 +1213,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.24</v>
+          <t>540003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5053</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.12</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.01</v>
+          <t>960003</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇丰晋信动态策略混合H</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002912-中新赛克.xlsx
+++ b/数据整理/stocks/A股/深证主板/002912-中新赛克.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="4">
@@ -518,11 +519,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>0.26</v>
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>1.12</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -571,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,31 +644,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城中小板创业板精选股票</t>
+          <t>景顺长城中小创精选股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.27</t>
+          <t>93.50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.84</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1402</t>
+          <t>0.1441</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -660,74 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>010706</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>景顺长城景骊成长混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>92.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0532</t>
+          <t>0.0355</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010706</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城景骊成长混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0444</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -802,26 +781,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1481</t>
+          <t>0.1402</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -830,36 +809,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010706</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城景骊成长混合型证券投资基金</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0661</t>
+          <t>0.0532</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -868,36 +847,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>010706</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0493</t>
+          <t>0.0444</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -906,6 +885,176 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1037,7 +1186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1207,7 +1356,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002912-中新赛克.xlsx
+++ b/数据整理/stocks/A股/深证主板/002912-中新赛克.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
@@ -535,11 +536,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>0.26</v>
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>1.12</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.01</v>
       </c>
     </row>
@@ -583,6 +600,366 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小创精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1969</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009189</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝成长策略混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002681</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002682</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰元和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.19</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002303</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -707,176 +1084,6 @@
       </c>
       <c r="H3" t="n">
         <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>000586</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城中小板创业板精选股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.27</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1402</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>260115</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城中小盘混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.26</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0532</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>010706</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城景骊成长混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.55</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0444</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -951,26 +1158,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.42</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.15</t>
+          <t>94.27</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1481</t>
+          <t>0.1402</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -979,36 +1186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010706</t>
+          <t>260115</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城景骊成长混合型证券投资基金</t>
+          <t>景顺长城中小盘混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.50</t>
+          <t>94.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>5.02</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0661</t>
+          <t>0.0532</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1017,36 +1224,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>260115</t>
+          <t>010706</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城中小盘混合</t>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>94.23</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.14</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0493</t>
+          <t>0.0444</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1055,6 +1262,176 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000586</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城中小板创业板精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010706</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城景骊成长混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1186,7 +1563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1356,7 +1733,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
